--- a/WorkBot/refactor/data/orders/US Foods/US Foods_Triphammer_2025-09-26.xlsx
+++ b/WorkBot/refactor/data/orders/US Foods/US Foods_Triphammer_2025-09-26.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +718,465 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>7520950</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Can - Pizza Sauce</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2742112</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Relish - Sweet</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>8255796</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tuna White Chunk (Pouch)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>360.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1030192</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BBQ - Sauce</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3427135</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dolmades (Stuffed Grape Leaves)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>54.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>108.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1028165</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pickle - Dill Chip</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1035842</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Feta - Pail</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2212975</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Roast Beef (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>119.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>715.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6364494</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Yogurt - Greek (Bulk)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1365278</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vegan Chicken Tenders</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1028188</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tortellini - Cheese</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>6318732</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FRZ Fruit - Apple (Sliced)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>66.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2825368</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sausage - Chicken Patty</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>50.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>152.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>9546982</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Arugula - Fresh</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>101.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7489339</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Garlic - Fresh (Peeled)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>89213</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Potato - Chef</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>6264014</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Tomato - Grape</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/WorkBot/refactor/data/orders/US Foods/US Foods_Triphammer_2025-09-26.xlsx
+++ b/WorkBot/refactor/data/orders/US Foods/US Foods_Triphammer_2025-09-26.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,6 +1177,33 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1030194</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bleach</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
